--- a/stage_matrix1.xlsx
+++ b/stage_matrix1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\NRES-470\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\NRES-470\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7AFE8F-A9AA-41EF-B9CB-41BCF8613A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stage_matrix1" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -833,16 +834,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -853,35 +854,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="C2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="C3">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -889,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.56000000000000005</v>
+        <v>0.49</v>
       </c>
       <c r="D4">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
     </row>
   </sheetData>

--- a/stage_matrix1.xlsx
+++ b/stage_matrix1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\NRES-470\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7AFE8F-A9AA-41EF-B9CB-41BCF8613A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EEE2DB-B79D-4D43-8E38-1CB5504DE973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1060" windowWidth="16870" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stage_matrix1" sheetId="1" r:id="rId1"/>
@@ -838,7 +838,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -862,10 +862,10 @@
         <v>0.08</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -873,10 +873,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="C3">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -890,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="D4">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
